--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/154.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/154.xlsx
@@ -479,13 +479,13 @@
         <v>-0.9612650565138599</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.833568017313718</v>
+        <v>-5.845198964650109</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.79113650859133</v>
+        <v>-3.749795066524697</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.551721478567373</v>
+        <v>-8.144572229263213</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.8038382299907735</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.499196524230455</v>
+        <v>-6.530095047629358</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.750684865774475</v>
+        <v>-3.751980452594208</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.435935128938226</v>
+        <v>-8.057577241073329</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.6420465910522343</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.018756172984373</v>
+        <v>-7.013554269677976</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.884296534440394</v>
+        <v>-3.855417170877527</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.044159452664863</v>
+        <v>-7.626376613425164</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4812057831254862</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.574455360498527</v>
+        <v>-7.560859032401637</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.628024572490447</v>
+        <v>-3.597698062894973</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.639882585832799</v>
+        <v>-7.245293195169745</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3187618691689605</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.380501033639927</v>
+        <v>-8.330721165721</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.664477007690164</v>
+        <v>-3.596436699123309</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.193985603542688</v>
+        <v>-6.836068653388362</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1555230588033704</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.152260101623654</v>
+        <v>-9.071884828731571</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.604347112233977</v>
+        <v>-3.527966157952165</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.766935742724534</v>
+        <v>-6.383317283470837</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.008947251040177778</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.777383186648001</v>
+        <v>-9.719306674075916</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.510771520801225</v>
+        <v>-3.420706236298918</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.215196650772582</v>
+        <v>-5.830038154355806</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1723242574054611</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.44505040942824</v>
+        <v>-10.36423512591814</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.381980412906085</v>
+        <v>-3.300935346073236</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.702300718378269</v>
+        <v>-5.29779642178911</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.336094139741572</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.76129581861463</v>
+        <v>-10.64306007654516</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.234444852683192</v>
+        <v>-3.141348383923398</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.552032203316771</v>
+        <v>-5.10277882687474</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5015285753540591</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.47983315784512</v>
+        <v>-11.36846647042367</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.283095360015863</v>
+        <v>-3.198647544403641</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.966128731378816</v>
+        <v>-4.498160236650235</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6709776920029203</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.12407225971911</v>
+        <v>-11.97204370218552</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.958959093746269</v>
+        <v>-2.851078268220923</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.378220766625427</v>
+        <v>-3.934560414039147</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.847561785692678</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.02541445471041</v>
+        <v>-12.88517818173982</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.877410459206128</v>
+        <v>-2.706525002186849</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.625704829669878</v>
+        <v>-3.164268048115495</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.032068710567391</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.55698150432947</v>
+        <v>-13.38680984231277</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.696839879583491</v>
+        <v>-2.553063965641256</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.12978841812436</v>
+        <v>-2.653391275557218</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.22819397459772</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.39897115595643</v>
+        <v>-14.22703945146764</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.468816599310578</v>
+        <v>-2.34448915468493</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.446476373369993</v>
+        <v>-1.959274525626968</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.440571534351661</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.97218765507474</v>
+        <v>-14.82910109110074</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.162715879373033</v>
+        <v>-2.018030610153552</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.241299422186173</v>
+        <v>-1.755862505922104</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.6742263678919</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.06669940038473</v>
+        <v>-15.87823796367889</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.792011822696074</v>
+        <v>-1.635446266789989</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8662637054251275</v>
+        <v>-1.374554193350807</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.93358393306929</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.9122335819902</v>
+        <v>-16.63660115284727</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.584996604930294</v>
+        <v>-1.439455759509103</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7207668610657386</v>
+        <v>-1.210748018274822</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.219946426831573</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.75094759901632</v>
+        <v>-17.46396778493529</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.068189467042449</v>
+        <v>-0.9313657208649669</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4543893219218777</v>
+        <v>-0.8945074980952952</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.531589902804323</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.50454400648946</v>
+        <v>-18.2183659895346</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.775293954652441</v>
+        <v>-0.6282032940544379</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6461263932285481</v>
+        <v>-1.083012935862935</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.865973539259732</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.03417989839609</v>
+        <v>-18.66742127026074</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3311081247657504</v>
+        <v>-0.2132977262937008</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.9987949035734579</v>
+        <v>-1.387847403021949</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.2155897739498</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.67816966091986</v>
+        <v>-19.26682329015824</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1642802740381406</v>
+        <v>0.2603052579112171</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.151723038370557</v>
+        <v>-1.505525798308591</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.569632434779656</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.09937715853205</v>
+        <v>-19.71564389855477</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3943080471264889</v>
+        <v>0.4560708708762254</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.189788845836357</v>
+        <v>-1.518603891677589</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.915009923242335</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.30754129291156</v>
+        <v>-19.91977949127594</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5303446631983973</v>
+        <v>0.5660833033955456</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.718143817943856</v>
+        <v>-2.030570912767188</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.236078437303024</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.85705588673907</v>
+        <v>-20.49889213267574</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8465362933092547</v>
+        <v>0.8616433245280218</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.104634477794083</v>
+        <v>-2.366968808259005</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.523214565661363</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.92481263290764</v>
+        <v>-20.51875616757602</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9162877542795302</v>
+        <v>0.9073799837680112</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.617051287515439</v>
+        <v>-2.835418779226195</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.767776474907046</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.19950637273212</v>
+        <v>-20.76494210835952</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8555125099169105</v>
+        <v>0.8273420523497466</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.990273182728859</v>
+        <v>-3.175991886582357</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.965195007688885</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.26030606212908</v>
+        <v>-20.87230958816384</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8804171108969753</v>
+        <v>0.86272379504561</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.352455700436785</v>
+        <v>-3.544491001162338</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.114495587214548</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.1536425993136</v>
+        <v>-20.73850235922324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7535913837623346</v>
+        <v>0.7314539606689437</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.67903158113297</v>
+        <v>-3.858159903729867</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.217986741357575</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.79682332213867</v>
+        <v>-20.38194219941227</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7670263746326169</v>
+        <v>0.7525695813271494</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.342528481055732</v>
+        <v>-4.481151381760238</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.283596199917347</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.73938726946616</v>
+        <v>-20.31804776866856</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7850765879852669</v>
+        <v>0.751381552658489</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.535512249113466</v>
+        <v>-4.635859115056895</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.320847772884041</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.60111637725607</v>
+        <v>-20.18897309837514</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5485708807982562</v>
+        <v>0.5137024838234189</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.049141532537816</v>
+        <v>-5.119597010496928</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.339033821086856</v>
       </c>
       <c r="E33" t="n">
-        <v>-20.21270922671401</v>
+        <v>-19.79266042372928</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4581193647534628</v>
+        <v>0.4170761521057118</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.132323095371507</v>
+        <v>-5.205051961523734</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.344905630106799</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.91792655767337</v>
+        <v>-19.48480455032651</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4108280013297945</v>
+        <v>0.35757204952849</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.438194031986306</v>
+        <v>-5.512022924683589</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.344247810762525</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.31892054733209</v>
+        <v>-18.92043226463045</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1905586859478084</v>
+        <v>0.1554751726708268</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.253355349368853</v>
+        <v>-5.338047615324421</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.339623546969562</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.97237796259142</v>
+        <v>-18.54434541139302</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1125888044342488</v>
+        <v>0.1019503254918419</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.391191119967786</v>
+        <v>-5.470075245765459</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.331938521460848</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.49722516320969</v>
+        <v>-18.11259721497576</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1485425609335414</v>
+        <v>0.143966450506109</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.984298634461923</v>
+        <v>-5.060078240899105</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.318302031859012</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.07959641862408</v>
+        <v>-17.6513976411922</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1277743291707577</v>
+        <v>-0.09088188335301746</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.781683522876366</v>
+        <v>-4.896956526784487</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.293030650956796</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.55874118305043</v>
+        <v>-17.11711230375514</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1267280817012379</v>
+        <v>-0.1073089464258517</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.809917537532801</v>
+        <v>-4.908548362065942</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.25098253692152</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.05217162554191</v>
+        <v>-16.64331375927554</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2531724663002592</v>
+        <v>-0.1878993356200777</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.592469179113024</v>
+        <v>-4.756260687168409</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.187696004814351</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.30558116490906</v>
+        <v>-15.91167388164172</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4652380281595619</v>
+        <v>-0.3724348998117824</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.675733855063453</v>
+        <v>-4.860508980591637</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.101168233542486</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.65791975822824</v>
+        <v>-15.26744455778147</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5596007496978874</v>
+        <v>-0.4783210105354264</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.548761457722804</v>
+        <v>-4.829434452945525</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.989818695733876</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.14669586618241</v>
+        <v>-14.77999101712258</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6478962137143713</v>
+        <v>-0.5811368249466478</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.124097432255706</v>
+        <v>-4.437072095848133</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.854030779176025</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.56170663852856</v>
+        <v>-14.20412467628241</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.709131024722481</v>
+        <v>-0.6235294034896672</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.298102075656075</v>
+        <v>-4.609072246433067</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.69487165943035</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.04547640345102</v>
+        <v>-13.67998402809419</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.8341722643506978</v>
+        <v>-0.7564272771530163</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.394009723364346</v>
+        <v>-4.706823049730165</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.517908142757834</v>
       </c>
       <c r="E46" t="n">
-        <v>-13.08979778614082</v>
+        <v>-12.72910152652043</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.98879199552375</v>
+        <v>-0.9295910113722768</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.215052516007791</v>
+        <v>-4.625997988206327</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.328110221735981</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.70172797707258</v>
+        <v>-12.37866240330684</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.139050732571514</v>
+        <v>-1.059726596155819</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.388631815810739</v>
+        <v>-4.828177978180728</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.129651467669714</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.93877889946303</v>
+        <v>-11.60430727267678</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.249410284578385</v>
+        <v>-1.179316593127425</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.3254951811314</v>
+        <v>-4.822932073812528</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.925343293902311</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.56170446683848</v>
+        <v>-11.20667456617685</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.359936062818731</v>
+        <v>-1.282195964627917</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.30371954454616</v>
+        <v>-4.78437247665317</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.715047067662292</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.97815749621038</v>
+        <v>-10.64226316842585</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.602157019033166</v>
+        <v>-1.529447708908406</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.526594700588213</v>
+        <v>-5.028343697325959</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.501388426256394</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.5690649576144</v>
+        <v>-10.22059610416817</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.541396441691147</v>
+        <v>-1.487421805880405</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.696424132124237</v>
+        <v>-5.203018134667097</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.284523504781571</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.06892933314274</v>
+        <v>-9.691292664728495</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.668896851773422</v>
+        <v>-1.605745550073481</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.697377488463285</v>
+        <v>-5.218526064448951</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.063624749377041</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.495463494674215</v>
+        <v>-9.153267237038238</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.64793279032809</v>
+        <v>-1.568779769152737</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.842942778918811</v>
+        <v>-5.368555018173971</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.837225649348861</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.002260481939835</v>
+        <v>-8.616605842263851</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.747829867639763</v>
+        <v>-1.671903590996574</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.79717678563762</v>
+        <v>-5.305917062195056</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.603445591565276</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.24086610851397</v>
+        <v>-7.885562423467793</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.910707131411035</v>
+        <v>-1.840090316225315</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.966703098747896</v>
+        <v>-5.489381933882906</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.362804005566816</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.878375583373428</v>
+        <v>-7.5345317304233</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.028678867109692</v>
+        <v>-1.940828302718098</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.99126058024041</v>
+        <v>-5.497096786718898</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.117070591167963</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.511460507018328</v>
+        <v>-7.211686161966571</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.893859613747646</v>
+        <v>-1.832536800615932</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.916810783671029</v>
+        <v>-5.384898968130067</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.867568718976378</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.060650072826967</v>
+        <v>-6.687736185046163</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.939581605967035</v>
+        <v>-1.8778627832791</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.13003504015779</v>
+        <v>-5.616016989749737</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.616231025575336</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.52771410128517</v>
+        <v>-6.222190284157921</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.154639240028889</v>
+        <v>-2.062779690006424</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.156445455252865</v>
+        <v>-5.588213207697592</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.365589412917767</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.453112745502914</v>
+        <v>-6.119584697041977</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.184603963116211</v>
+        <v>-2.113200017824918</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.06905445750676</v>
+        <v>-5.460003891619614</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.118522698299422</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.346170609296017</v>
+        <v>-6.015380404680552</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.239062610606776</v>
+        <v>-2.188705839877553</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.041490236791094</v>
+        <v>-5.432835680460168</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.8807353448964532</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.095897458771774</v>
+        <v>-5.766955298752002</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.237547018478033</v>
+        <v>-2.212432190202691</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.149058165876957</v>
+        <v>-5.55832670872014</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.6552695465493096</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.832873778338617</v>
+        <v>-5.476162059314768</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.38122515228293</v>
+        <v>-2.351015978852262</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.031203766343105</v>
+        <v>-5.393195612783222</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.4446324617738973</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.661039853987157</v>
+        <v>-5.322725467803509</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.57801745668999</v>
+        <v>-2.529000273842301</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.854637283344472</v>
+        <v>-5.204191496315157</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2511299747560889</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.491381537691474</v>
+        <v>-5.141162419786889</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.397925999740311</v>
+        <v>-2.34796034956044</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.87744450037863</v>
+        <v>-5.246227177356891</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.07606413788637471</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.449189408429999</v>
+        <v>-5.142624232840096</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.495403018652861</v>
+        <v>-2.447960096016319</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.96145230537283</v>
+        <v>-5.296070602365089</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.07681220417348053</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.277546155346348</v>
+        <v>-4.944507007572102</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.641765217227694</v>
+        <v>-2.564905140272924</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.885936705306461</v>
+        <v>-5.204871068269657</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2053480782689939</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.39658858354886</v>
+        <v>-5.054387436906016</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.721690701488019</v>
+        <v>-2.62717642073682</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.773763331751964</v>
+        <v>-5.081511647003659</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3079639634079105</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.465274241022149</v>
+        <v>-5.156328119088059</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.697001216810099</v>
+        <v>-2.618385986390106</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.545652049355446</v>
+        <v>-4.865407765472285</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3833170781621085</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.292540739407176</v>
+        <v>-4.954597917745414</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.696233642731993</v>
+        <v>-2.583957600033291</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.632573702442327</v>
+        <v>-4.892820426975077</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4306114629819067</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.732790918766001</v>
+        <v>-5.438878492947675</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.795656486377576</v>
+        <v>-2.67975768959049</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.438895695409492</v>
+        <v>-4.720673606184135</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.448837191144381</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.817600520886375</v>
+        <v>-5.508209499327395</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.781458810436054</v>
+        <v>-2.644341723846558</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.256613963383435</v>
+        <v>-4.484343903244334</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4377356280568039</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.011038966582731</v>
+        <v>-5.727960579981489</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.863335008436279</v>
+        <v>-2.747573103841467</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.237742396877143</v>
+        <v>-4.468567078084799</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3968398487070706</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.143751057985138</v>
+        <v>-5.889165803404275</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.756603099524659</v>
+        <v>-2.631874756335925</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.797311324264244</v>
+        <v>-4.013288091617078</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3260846255736852</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.615241991223548</v>
+        <v>-6.351250287430742</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.996780450868723</v>
+        <v>-2.849914684586598</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.615220263505996</v>
+        <v>-3.834692670768675</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2257795264927858</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.810215585076116</v>
+        <v>-6.547099013512487</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.039925936469247</v>
+        <v>-2.90036923545316</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.272481326107791</v>
+        <v>-3.460854760690024</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.09670022691180596</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.405623286363353</v>
+        <v>-7.132146909248732</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.05519919392149</v>
+        <v>-2.907634299657396</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.03662585683408</v>
+        <v>-3.151722856494991</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.05840315596224074</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.042792884307778</v>
+        <v>-7.794895791120855</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.149464135322477</v>
+        <v>-2.995445751994055</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.770698106321975</v>
+        <v>-2.863530568710956</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2381756901046244</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.820418760531801</v>
+        <v>-8.533634506725438</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.175361204696525</v>
+        <v>-2.992233674482492</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.417447804159902</v>
+        <v>-2.468332587630753</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.4406672182561114</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.409553866008787</v>
+        <v>-9.130313349798072</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.254147550356859</v>
+        <v>-3.073679639878428</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.104145577107392</v>
+        <v>-2.124361620502085</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.6637643209862126</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.16243158947249</v>
+        <v>-9.853949923190754</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.191553595439748</v>
+        <v>-3.027067848409261</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.732810838544601</v>
+        <v>-1.76239910810317</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.9055346518663215</v>
       </c>
       <c r="E82" t="n">
-        <v>-11.0533553108304</v>
+        <v>-10.75051066946622</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.33856603192788</v>
+        <v>-3.174828302948031</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.674245425285826</v>
+        <v>-1.707290222699305</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.162110502023752</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.92081668823398</v>
+        <v>-11.65437559200085</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.386072511653693</v>
+        <v>-3.1860192396664</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.442887842329677</v>
+        <v>-1.438155283682504</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.431085246000144</v>
       </c>
       <c r="E84" t="n">
-        <v>-13.00939317920753</v>
+        <v>-12.70970194727251</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.398255916766045</v>
+        <v>-3.229081612150186</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.24616887302562</v>
+        <v>-1.184234934035542</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.711492895011354</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.37044868989485</v>
+        <v>-14.08504313602496</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.381423066123256</v>
+        <v>-3.195650583194222</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.104783683441307</v>
+        <v>-1.077874589645807</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.001921894346527</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.59245106727338</v>
+        <v>-15.2889268539547</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.287339017976345</v>
+        <v>-3.124539978314944</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.107971315918536</v>
+        <v>-1.102168064767508</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.301004572670547</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.01674588178424</v>
+        <v>-16.72860737307574</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.20479791504222</v>
+        <v>-3.050486191301784</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9623522463874739</v>
+        <v>-0.9396721435318555</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.606121329098667</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.40836257439664</v>
+        <v>-18.11788223139889</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.212082535273924</v>
+        <v>-3.060591768495697</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.285422709160081</v>
+        <v>-1.258161606870163</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.913408077450406</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.92650676472481</v>
+        <v>-19.63513662247728</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.155013158116425</v>
+        <v>-3.027322076766341</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.207389270557251</v>
+        <v>-1.121494308912422</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.221980805938707</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.68588433188029</v>
+        <v>-21.41434889049183</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.900867914153586</v>
+        <v>-2.778144063780287</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.409031469776291</v>
+        <v>-1.329707333360596</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.528781632157961</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.30945506628661</v>
+        <v>-22.99585460981521</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.860768279831149</v>
+        <v>-2.746213959932465</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.533300246319535</v>
+        <v>-1.468887580847931</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.829741435733082</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.15091416973072</v>
+        <v>-24.86617352079473</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.652271692984694</v>
+        <v>-2.562098850331315</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.807729979773205</v>
+        <v>-1.760340836212199</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>4.120103154966694</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.05300184733145</v>
+        <v>-26.75858829830927</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.526311320065497</v>
+        <v>-2.46058840075356</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.263214304529336</v>
+        <v>-2.198703858920394</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.391513481770666</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.09161993069765</v>
+        <v>-28.77500784599624</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.7081872645216</v>
+        <v>-2.637599783377083</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.424135965553842</v>
+        <v>-2.36436296759894</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.641198100989741</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.31259797019977</v>
+        <v>-30.99055664337265</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.571358629337252</v>
+        <v>-2.538528948225918</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.766752677780374</v>
+        <v>-2.702452459466709</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.863359338614451</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.41598317203542</v>
+        <v>-33.09744970763531</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.702032004876155</v>
+        <v>-2.645075074876595</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.084161670601094</v>
+        <v>-3.010039437491796</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.054574462043917</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.46450149430711</v>
+        <v>-35.16972371427335</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.79298708862824</v>
+        <v>-2.76488996616408</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.429198441226749</v>
+        <v>-3.337769123808573</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.207329967779116</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.61332023695701</v>
+        <v>-37.29427098233244</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.933942045608265</v>
+        <v>-2.904788897660851</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.690579415352623</v>
+        <v>-3.598377634849474</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.320233727588429</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.94033105738878</v>
+        <v>-39.64987271492193</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.842121607640735</v>
+        <v>-2.845206570973759</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.886198358111624</v>
+        <v>-3.835567802997853</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>5.385022074302031</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.1984826606035</v>
+        <v>-41.86800779693095</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.853732998949658</v>
+        <v>-2.884030174503931</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.268147130582488</v>
+        <v>-4.240866472265102</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>5.408880033480004</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.22671404888093</v>
+        <v>-43.8901841502037</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.852090292642375</v>
+        <v>-2.903380863683179</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.573920287059949</v>
+        <v>-4.54900590806615</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>5.37515815322821</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.7131333827119</v>
+        <v>-46.36323449475709</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.974056346951302</v>
+        <v>-3.085295920194218</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.745744433397675</v>
+        <v>-4.727391101619276</v>
       </c>
     </row>
   </sheetData>
